--- a/GameServer/realmabilities_atlasOF/dbhelper/DB_RealmAbilities_Hibernia.xlsx
+++ b/GameServer/realmabilities_atlasOF/dbhelper/DB_RealmAbilities_Hibernia.xlsx
@@ -27,6 +27,9 @@
     <sheet name="ANIMIST" sheetId="14" r:id="rId13"/>
     <sheet name="VALEWALKER" sheetId="5" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -375,9 +378,6 @@
     <t>Mercenary</t>
   </si>
   <si>
-    <t>AtlasOF_VoidStyle</t>
-  </si>
-  <si>
     <t>Reaver</t>
   </si>
   <si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Bonedancer</t>
+  </si>
+  <si>
+    <t>AtlasOF_PurgeReduced</t>
   </si>
 </sst>
 </file>
@@ -624,6 +627,173 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -763,8 +933,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -889,8 +1155,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1015,8 +1377,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1141,8 +1599,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1267,8 +1821,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1393,8 +2043,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1507,749 +2253,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2268,6 +2271,47 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CONFIG"/>
+      <sheetName val="PALADIN"/>
+      <sheetName val="ARMSMAN"/>
+      <sheetName val="MERCENARY"/>
+      <sheetName val="REAVER"/>
+      <sheetName val="CLERIC"/>
+      <sheetName val="FRIAR"/>
+      <sheetName val="INFILTRATOR"/>
+      <sheetName val="MINSTREL"/>
+      <sheetName val="SCOUT"/>
+      <sheetName val="CABALIST"/>
+      <sheetName val="SORCERER"/>
+      <sheetName val="THEURGIST"/>
+      <sheetName val="WIZARD"/>
+      <sheetName val="NECROMANCER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblRealmAbilities" displayName="tblRealmAbilities" ref="B1:B101" totalsRowShown="0">
   <autoFilter ref="B1:B101"/>
@@ -2282,8 +2326,62 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblScout13" displayName="tblScout13" ref="B3:H33" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblScout13" displayName="tblScout13" ref="B3:H33" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B3:H33"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityKey" dataDxfId="58"/>
+    <tableColumn id="2" name="#" dataDxfId="57"/>
+    <tableColumn id="3" name=" ." dataDxfId="56"/>
+    <tableColumn id="4" name="##" dataDxfId="55"/>
+    <tableColumn id="5" name=" .." dataDxfId="54"/>
+    <tableColumn id="6" name="###" dataDxfId="53"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="6">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="tblScout1314" displayName="tblScout1314" ref="B3:H34" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="B3:H34"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityKey" dataDxfId="50"/>
+    <tableColumn id="2" name="#" dataDxfId="49"/>
+    <tableColumn id="3" name=" ." dataDxfId="48"/>
+    <tableColumn id="4" name="##" dataDxfId="47"/>
+    <tableColumn id="5" name=" .." dataDxfId="46"/>
+    <tableColumn id="6" name="###" dataDxfId="45"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="5">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblInfiltrator" displayName="tblInfiltrator" ref="B3:H32" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="B3:H32"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityKey" dataDxfId="42"/>
+    <tableColumn id="2" name="#" dataDxfId="41"/>
+    <tableColumn id="3" name=" ." dataDxfId="40"/>
+    <tableColumn id="4" name="##" dataDxfId="39"/>
+    <tableColumn id="5" name=" .." dataDxfId="38"/>
+    <tableColumn id="6" name="###" dataDxfId="37"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblScout" displayName="tblScout" ref="B3:H34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="B3:H34"/>
   <tableColumns count="7">
     <tableColumn id="1" name="AbilityKey" dataDxfId="34"/>
     <tableColumn id="2" name="#" dataDxfId="33"/>
@@ -2291,62 +2389,8 @@
     <tableColumn id="4" name="##" dataDxfId="31"/>
     <tableColumn id="5" name=" .." dataDxfId="30"/>
     <tableColumn id="6" name="###" dataDxfId="29"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="28">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="tblScout1314" displayName="tblScout1314" ref="B3:H34" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="B3:H34"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="25"/>
-    <tableColumn id="2" name="#" dataDxfId="24"/>
-    <tableColumn id="3" name=" ." dataDxfId="23"/>
-    <tableColumn id="4" name="##" dataDxfId="22"/>
-    <tableColumn id="5" name=" .." dataDxfId="21"/>
-    <tableColumn id="6" name="###" dataDxfId="20"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="19">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblInfiltrator" displayName="tblInfiltrator" ref="B3:H32" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="B3:H32"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="61"/>
-    <tableColumn id="2" name="#" dataDxfId="60"/>
-    <tableColumn id="3" name=" ." dataDxfId="59"/>
-    <tableColumn id="4" name="##" dataDxfId="58"/>
-    <tableColumn id="5" name=" .." dataDxfId="57"/>
-    <tableColumn id="6" name="###" dataDxfId="56"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="55">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblScout" displayName="tblScout" ref="B3:H34" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="B3:H34"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="43"/>
-    <tableColumn id="2" name="#" dataDxfId="42"/>
-    <tableColumn id="3" name=" ." dataDxfId="41"/>
-    <tableColumn id="4" name="##" dataDxfId="40"/>
-    <tableColumn id="5" name=" .." dataDxfId="39"/>
-    <tableColumn id="6" name="###" dataDxfId="38"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="37">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2354,17 +2398,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tblScout131415" displayName="tblScout131415" ref="B3:H33" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tblScout131415" displayName="tblScout131415" ref="B3:H33" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="16"/>
-    <tableColumn id="2" name="#" dataDxfId="15"/>
-    <tableColumn id="3" name=" ." dataDxfId="14"/>
-    <tableColumn id="4" name="##" dataDxfId="13"/>
-    <tableColumn id="5" name=" .." dataDxfId="12"/>
-    <tableColumn id="6" name="###" dataDxfId="11"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="10">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="26"/>
+    <tableColumn id="2" name="#" dataDxfId="25"/>
+    <tableColumn id="3" name=" ." dataDxfId="24"/>
+    <tableColumn id="4" name="##" dataDxfId="23"/>
+    <tableColumn id="5" name=" .." dataDxfId="22"/>
+    <tableColumn id="6" name="###" dataDxfId="21"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2372,17 +2416,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblReaver" displayName="tblReaver" ref="B3:H35" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblReaver" displayName="tblReaver" ref="B3:H35" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="87"/>
-    <tableColumn id="2" name="#" dataDxfId="86"/>
-    <tableColumn id="3" name=" ." dataDxfId="85"/>
-    <tableColumn id="4" name="##" dataDxfId="84"/>
-    <tableColumn id="5" name=" .." dataDxfId="83"/>
-    <tableColumn id="6" name="###" dataDxfId="82"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="81">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="18"/>
+    <tableColumn id="2" name="#" dataDxfId="17"/>
+    <tableColumn id="3" name=" ." dataDxfId="16"/>
+    <tableColumn id="4" name="##" dataDxfId="15"/>
+    <tableColumn id="5" name=" .." dataDxfId="14"/>
+    <tableColumn id="6" name="###" dataDxfId="13"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2391,13 +2435,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="D1:F40" totalsRowShown="0">
-  <autoFilter ref="D1:F40">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Hibernia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:F40"/>
   <sortState ref="D2:F15">
     <sortCondition ref="E1:E15"/>
   </sortState>
@@ -2411,17 +2449,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tblMinstrel" displayName="tblMinstrel" ref="B3:H35" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tblMinstrel" displayName="tblMinstrel" ref="B3:H35" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="52"/>
-    <tableColumn id="2" name="#" dataDxfId="51"/>
-    <tableColumn id="3" name=" ." dataDxfId="50"/>
-    <tableColumn id="4" name="##" dataDxfId="49"/>
-    <tableColumn id="5" name=" .." dataDxfId="48"/>
-    <tableColumn id="6" name="###" dataDxfId="47"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="46">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="114"/>
+    <tableColumn id="2" name="#" dataDxfId="113"/>
+    <tableColumn id="3" name=" ." dataDxfId="112"/>
+    <tableColumn id="4" name="##" dataDxfId="111"/>
+    <tableColumn id="5" name=" .." dataDxfId="110"/>
+    <tableColumn id="6" name="###" dataDxfId="109"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2429,17 +2467,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblFriar" displayName="tblFriar" ref="B3:H33" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblFriar" displayName="tblFriar" ref="B3:H33" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="70"/>
-    <tableColumn id="2" name="#" dataDxfId="69"/>
-    <tableColumn id="3" name=" ." dataDxfId="68"/>
-    <tableColumn id="4" name="##" dataDxfId="67"/>
-    <tableColumn id="5" name=" .." dataDxfId="66"/>
-    <tableColumn id="6" name="###" dataDxfId="65"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="64">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="106"/>
+    <tableColumn id="2" name="#" dataDxfId="105"/>
+    <tableColumn id="3" name=" ." dataDxfId="104"/>
+    <tableColumn id="4" name="##" dataDxfId="103"/>
+    <tableColumn id="5" name=" .." dataDxfId="102"/>
+    <tableColumn id="6" name="###" dataDxfId="101"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="12">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2447,17 +2485,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblCleric" displayName="tblCleric" ref="B3:H38" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblCleric" displayName="tblCleric" ref="B3:H38" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="B3:H38"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="0"/>
-    <tableColumn id="2" name="#" dataDxfId="78"/>
-    <tableColumn id="3" name=" ." dataDxfId="77"/>
-    <tableColumn id="4" name="##" dataDxfId="76"/>
-    <tableColumn id="5" name=" .." dataDxfId="75"/>
-    <tableColumn id="6" name="###" dataDxfId="74"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="73">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="98"/>
+    <tableColumn id="2" name="#" dataDxfId="97"/>
+    <tableColumn id="3" name=" ." dataDxfId="96"/>
+    <tableColumn id="4" name="##" dataDxfId="95"/>
+    <tableColumn id="5" name=" .." dataDxfId="94"/>
+    <tableColumn id="6" name="###" dataDxfId="93"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="11">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2465,17 +2503,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblMercenary" displayName="tblMercenary" ref="B3:H36" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblMercenary" displayName="tblMercenary" ref="B3:H36" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B3:H36"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="96"/>
-    <tableColumn id="2" name="#" dataDxfId="95"/>
-    <tableColumn id="3" name=" ." dataDxfId="94"/>
-    <tableColumn id="4" name="##" dataDxfId="93"/>
-    <tableColumn id="5" name=" .." dataDxfId="92"/>
-    <tableColumn id="6" name="###" dataDxfId="91"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="90">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="90"/>
+    <tableColumn id="2" name="#" dataDxfId="89"/>
+    <tableColumn id="3" name=" ." dataDxfId="88"/>
+    <tableColumn id="4" name="##" dataDxfId="87"/>
+    <tableColumn id="5" name=" .." dataDxfId="86"/>
+    <tableColumn id="6" name="###" dataDxfId="85"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="10">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2483,17 +2521,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblArmsman" displayName="tblArmsman" ref="B3:H36" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblArmsman" displayName="tblArmsman" ref="B3:H36" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="B3:H36"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="105"/>
-    <tableColumn id="2" name="#" dataDxfId="104"/>
-    <tableColumn id="3" name=" ." dataDxfId="103"/>
-    <tableColumn id="4" name="##" dataDxfId="102"/>
-    <tableColumn id="5" name=" .." dataDxfId="101"/>
-    <tableColumn id="6" name="###" dataDxfId="100"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="99">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="82"/>
+    <tableColumn id="2" name="#" dataDxfId="81"/>
+    <tableColumn id="3" name=" ." dataDxfId="80"/>
+    <tableColumn id="4" name="##" dataDxfId="79"/>
+    <tableColumn id="5" name=" .." dataDxfId="78"/>
+    <tableColumn id="6" name="###" dataDxfId="77"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="9">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2501,17 +2539,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblPaladin" displayName="tblPaladin" ref="B3:H36" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblPaladin" displayName="tblPaladin" ref="B3:H36" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="B3:H36"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="114"/>
-    <tableColumn id="2" name="#" dataDxfId="113"/>
-    <tableColumn id="3" name=" ." dataDxfId="112"/>
-    <tableColumn id="4" name="##" dataDxfId="111"/>
-    <tableColumn id="5" name=" .." dataDxfId="110"/>
-    <tableColumn id="6" name="###" dataDxfId="109"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="108">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="74"/>
+    <tableColumn id="2" name="#" dataDxfId="73"/>
+    <tableColumn id="3" name=" ." dataDxfId="72"/>
+    <tableColumn id="4" name="##" dataDxfId="71"/>
+    <tableColumn id="5" name=" .." dataDxfId="70"/>
+    <tableColumn id="6" name="###" dataDxfId="69"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="8">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2519,17 +2557,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="tblScout13141516" displayName="tblScout13141516" ref="B3:H33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="tblScout13141516" displayName="tblScout13141516" ref="B3:H33" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="7"/>
-    <tableColumn id="2" name="#" dataDxfId="6"/>
-    <tableColumn id="3" name=" ." dataDxfId="5"/>
-    <tableColumn id="4" name="##" dataDxfId="4"/>
-    <tableColumn id="5" name=" .." dataDxfId="3"/>
-    <tableColumn id="6" name="###" dataDxfId="2"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="1">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="66"/>
+    <tableColumn id="2" name="#" dataDxfId="65"/>
+    <tableColumn id="3" name=" ." dataDxfId="64"/>
+    <tableColumn id="4" name="##" dataDxfId="63"/>
+    <tableColumn id="5" name=" .." dataDxfId="62"/>
+    <tableColumn id="6" name="###" dataDxfId="61"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="7">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"','",$D$2,[1]!tblPaladin[[#This Row],['#]],[1]!tblPaladin[[#This Row],[ .]],[1]!tblPaladin[[#This Row],['#'#]],[1]!tblPaladin[[#This Row],[ ..]],[1]!tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2805,8 +2843,8 @@
   <dimension ref="B1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2832,12 +2870,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2846,12 +2884,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2860,124 +2898,124 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="12">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2986,46 +3024,46 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -3033,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -3047,13 +3085,13 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17">
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -3061,13 +3099,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -3075,13 +3113,13 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -3089,13 +3127,13 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -3103,13 +3141,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3117,13 +3155,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -3131,13 +3169,13 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -3145,13 +3183,13 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -3159,13 +3197,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -3173,13 +3211,13 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -3187,13 +3225,13 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -3201,181 +3239,181 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34">
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38">
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39">
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -3470,172 +3508,172 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
@@ -3696,9 +3734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,20 +3748,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="217.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3773,8 +3811,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_AugStr', 'Mentalist1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_AugStr', 'Mentalist1-0-1','Mentalist1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3799,8 +3837,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_AugDex', 'Mentalist1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_AugDex', 'Mentalist1-0-2','Mentalist1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -3825,8 +3863,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_AugCon', 'Mentalist1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_AugCon', 'Mentalist1-0-3','Mentalist1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -3851,8 +3889,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_SecondWind', 'Mentalist1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_SecondWind', 'Mentalist1-0-4','Mentalist1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -3877,8 +3915,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_AugQui', 'Mentalist1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_AugQui', 'Mentalist1-0-5','Mentalist1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -3903,8 +3941,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_AugAcuity', 'Mentalist1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_AugAcuity', 'Mentalist1-0-6','Mentalist1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -3929,8 +3967,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Serenity', 'Mentalist1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Serenity', 'Mentalist1-0-7','Mentalist1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -3955,8 +3993,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_EtherealBond', 'Mentalist1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_EtherealBond', 'Mentalist1-0-8','Mentalist1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -3981,8 +4019,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_WildArcana', 'Mentalist1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_WildArcana', 'Mentalist1-0-9','Mentalist1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -4007,8 +4045,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_WildHealing', 'Mentalist1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_WildHealing', 'Mentalist1-1-1','Mentalist1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -4033,8 +4071,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_WildPower', 'Mentalist1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_WildPower', 'Mentalist1-1-2','Mentalist1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -4059,8 +4097,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MasteryOfTheArt', 'Mentalist1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MasteryOfTheArt', 'Mentalist1-1-3','Mentalist1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -4085,8 +4123,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MasteryOfHealing', 'Mentalist1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MasteryOfHealing', 'Mentalist1-1-4','Mentalist1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4111,8 +4149,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MasteryOfMagery', 'Mentalist1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MasteryOfMagery', 'Mentalist1-1-5','Mentalist1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4137,8 +4175,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MasteryOfTheArcane', 'Mentalist1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MasteryOfTheArcane', 'Mentalist1-1-6','Mentalist1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4163,8 +4201,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Concentration', 'Mentalist1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Concentration', 'Mentalist1-1-7','Mentalist1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4189,8 +4227,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MasteryOfConcentration', 'Mentalist1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MasteryOfConcentration', 'Mentalist1-1-8','Mentalist1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4215,8 +4253,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MajesticWill', 'Mentalist1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MajesticWill', 'Mentalist1-1-9','Mentalist1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4241,8 +4279,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_LongWind', 'Mentalist1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_LongWind', 'Mentalist1-2-1','Mentalist1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4267,8 +4305,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Tireless', 'Mentalist1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Tireless', 'Mentalist1-2-2','Mentalist1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4293,8 +4331,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Regeneration', 'Mentalist1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Regeneration', 'Mentalist1-2-3','Mentalist1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4319,8 +4357,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Toughness', 'Mentalist1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Toughness', 'Mentalist1-2-4','Mentalist1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4345,8 +4383,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MasteryOfWater', 'Mentalist1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MasteryOfWater', 'Mentalist1-2-5','Mentalist1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4371,8 +4409,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_AvoidanceOfMagic', 'Mentalist1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_AvoidanceOfMagic', 'Mentalist1-2-6','Mentalist1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4397,8 +4435,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Lifter', 'Mentalist1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Lifter', 'Mentalist1-2-7','Mentalist1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4423,8 +4461,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_VeilRecovery', 'Mentalist1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_VeilRecovery', 'Mentalist1-2-8','Mentalist1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4449,8 +4487,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_EmptyMind', 'Mentalist1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_EmptyMind', 'Mentalist1-2-9','Mentalist1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4475,8 +4513,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_MCL', 'Mentalist1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_MCL', 'Mentalist1-3-1','Mentalist1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4501,8 +4539,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_RagingPower', 'Mentalist1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_RagingPower', 'Mentalist1-3-2','Mentalist1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4527,8 +4565,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_Purge', 'Mentalist1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_Purge', 'Mentalist1-3-3','Mentalist1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4553,8 +4591,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('42', 'AtlasOF_SeveringTheTether', 'Mentalist1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"','",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('42', 'AtlasOF_SeveringTheTether', 'Mentalist1-3-4','Mentalist1-3-4');</v>
       </c>
     </row>
   </sheetData>
@@ -4565,12 +4603,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B34</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B6:B34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4582,9 +4626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H32"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,20 +4640,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="219.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -4659,8 +4703,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_AugStr', 'Nightshade1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_AugStr', 'Nightshade1-0-1','Nightshade1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -4685,8 +4729,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_AugDex', 'Nightshade1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_AugDex', 'Nightshade1-0-2','Nightshade1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -4711,8 +4755,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_MasteryOfPain', 'Nightshade1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_MasteryOfPain', 'Nightshade1-0-3','Nightshade1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -4737,8 +4781,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_HailOfBlows', 'Nightshade1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_HailOfBlows', 'Nightshade1-0-4','Nightshade1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -4763,8 +4807,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_DualistsReflexes', 'Nightshade1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_DualistsReflexes', 'Nightshade1-0-5','Nightshade1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -4789,8 +4833,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_WhirlingDervish', 'Nightshade1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_WhirlingDervish', 'Nightshade1-0-6','Nightshade1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -4815,8 +4859,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Bladedance', 'Nightshade1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Bladedance', 'Nightshade1-0-7','Nightshade1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -4841,8 +4885,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_AugCon', 'Nightshade1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_AugCon', 'Nightshade1-0-8','Nightshade1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -4867,8 +4911,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_AvoidPain', 'Nightshade1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_AvoidPain', 'Nightshade1-0-9','Nightshade1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -4893,8 +4937,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_SecondWind', 'Nightshade1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_SecondWind', 'Nightshade1-1-1','Nightshade1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -4919,8 +4963,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_AugQui', 'Nightshade1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_AugQui', 'Nightshade1-1-2','Nightshade1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -4945,8 +4989,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Dodger', 'Nightshade1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Dodger', 'Nightshade1-1-3','Nightshade1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -4971,8 +5015,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_MasteryOfStealth', 'Nightshade1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_MasteryOfStealth', 'Nightshade1-1-4','Nightshade1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4997,8 +5041,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_LongWind', 'Nightshade1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_LongWind', 'Nightshade1-1-5','Nightshade1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5023,8 +5067,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Tireless', 'Nightshade1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Tireless', 'Nightshade1-1-6','Nightshade1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -5049,8 +5093,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Regeneration', 'Nightshade1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Regeneration', 'Nightshade1-1-7','Nightshade1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -5075,8 +5119,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Toughness', 'Nightshade1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Toughness', 'Nightshade1-1-8','Nightshade1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -5101,8 +5145,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_MasteryOfWater', 'Nightshade1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_MasteryOfWater', 'Nightshade1-1-9','Nightshade1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -5127,8 +5171,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_AvoidanceOfMagic', 'Nightshade1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_AvoidanceOfMagic', 'Nightshade1-2-1','Nightshade1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -5153,8 +5197,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Lifter', 'Nightshade1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Lifter', 'Nightshade1-2-2','Nightshade1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -5179,8 +5223,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_VeilRecovery', 'Nightshade1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_VeilRecovery', 'Nightshade1-2-3','Nightshade1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -5205,8 +5249,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_SeeHidden', 'Nightshade1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_SeeHidden', 'Nightshade1-2-4','Nightshade1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -5231,8 +5275,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_FirstAid', 'Nightshade1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_FirstAid', 'Nightshade1-2-5','Nightshade1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -5257,8 +5301,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_RainOfFire', 'Nightshade1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_RainOfFire', 'Nightshade1-2-6','Nightshade1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -5283,8 +5327,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_RainOfIce', 'Nightshade1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_RainOfIce', 'Nightshade1-2-7','Nightshade1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -5309,8 +5353,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_RainOfAnnihilation', 'Nightshade1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_RainOfAnnihilation', 'Nightshade1-2-8','Nightshade1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -5335,8 +5379,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_EmptyMind', 'Nightshade1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_EmptyMind', 'Nightshade1-2-9','Nightshade1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -5361,8 +5405,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Purge', 'Nightshade1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Purge', 'Nightshade1-3-1','Nightshade1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -5387,8 +5431,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('49', 'AtlasOF_Viper', 'Nightshade1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('49', 'AtlasOF_Viper', 'Nightshade1-3-2','Nightshade1-3-2');</v>
       </c>
     </row>
   </sheetData>
@@ -5399,12 +5443,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B32</xm:sqref>
+          <xm:sqref>B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B10 B12:B32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5416,9 +5466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,20 +5480,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="210.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5493,8 +5543,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AugStr', 'Ranger1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AugStr', 'Ranger1-0-1','Ranger1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5519,8 +5569,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_MasteryOfArms', 'Ranger1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_MasteryOfArms', 'Ranger1-0-2','Ranger1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5545,8 +5595,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AugDex', 'Ranger1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AugDex', 'Ranger1-0-3','Ranger1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5571,8 +5621,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_MasteryOfPain', 'Ranger1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_MasteryOfPain', 'Ranger1-0-4','Ranger1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5597,8 +5647,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_MasteryOfArchery', 'Ranger1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_MasteryOfArchery', 'Ranger1-0-5','Ranger1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5623,8 +5673,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_FalconsEye', 'Ranger1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_FalconsEye', 'Ranger1-0-6','Ranger1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -5649,8 +5699,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_WhirlingDervish', 'Ranger1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_WhirlingDervish', 'Ranger1-0-7','Ranger1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5675,8 +5725,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Bladedance', 'Ranger1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Bladedance', 'Ranger1-0-8','Ranger1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5701,8 +5751,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AugCon', 'Ranger1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AugCon', 'Ranger1-0-9','Ranger1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5727,8 +5777,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AvoidPain', 'Ranger1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AvoidPain', 'Ranger1-1-1','Ranger1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5753,8 +5803,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_SecondWind', 'Ranger1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_SecondWind', 'Ranger1-1-2','Ranger1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5779,8 +5829,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AugQui', 'Ranger1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AugQui', 'Ranger1-1-3','Ranger1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5805,8 +5855,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Dodger', 'Ranger1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Dodger', 'Ranger1-1-4','Ranger1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -5831,8 +5881,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AugAcuity', 'Ranger1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AugAcuity', 'Ranger1-1-5','Ranger1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5857,8 +5907,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_MasteryOfTheArcane', 'Ranger1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_MasteryOfTheArcane', 'Ranger1-1-6','Ranger1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -5883,8 +5933,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_LongWind', 'Ranger1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_LongWind', 'Ranger1-1-7','Ranger1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -5909,8 +5959,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Tireless', 'Ranger1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Tireless', 'Ranger1-1-8','Ranger1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -5935,8 +5985,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Regeneration', 'Ranger1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Regeneration', 'Ranger1-1-9','Ranger1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -5961,8 +6011,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Toughness', 'Ranger1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Toughness', 'Ranger1-2-1','Ranger1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -5987,8 +6037,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_MasteryOfWater', 'Ranger1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_MasteryOfWater', 'Ranger1-2-2','Ranger1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -6013,8 +6063,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_AvoidanceOfMagic', 'Ranger1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_AvoidanceOfMagic', 'Ranger1-2-3','Ranger1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -6039,8 +6089,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Lifter', 'Ranger1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Lifter', 'Ranger1-2-4','Ranger1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -6065,8 +6115,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_VeilRecovery', 'Ranger1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_VeilRecovery', 'Ranger1-2-5','Ranger1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -6091,8 +6141,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_ArrowSalvaging', 'Ranger1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_ArrowSalvaging', 'Ranger1-2-6','Ranger1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -6117,8 +6167,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_FirstAid', 'Ranger1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_FirstAid', 'Ranger1-2-7','Ranger1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -6143,8 +6193,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_IgnorePain', 'Ranger1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_IgnorePain', 'Ranger1-2-8','Ranger1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -6169,8 +6219,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Longshot', 'Ranger1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Longshot', 'Ranger1-2-9','Ranger1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -6195,8 +6245,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Volley', 'Ranger1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Volley', 'Ranger1-3-1','Ranger1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -6221,8 +6271,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_EmptyMind', 'Ranger1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_EmptyMind', 'Ranger1-3-2','Ranger1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -6247,8 +6297,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_Purge', 'Ranger1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_Purge', 'Ranger1-3-3','Ranger1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -6273,8 +6323,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('50', 'AtlasOF_TrueSight', 'Ranger1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('50', 'AtlasOF_TrueSight', 'Ranger1-3-4','Ranger1-3-4');</v>
       </c>
     </row>
   </sheetData>
@@ -6285,12 +6335,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B34</xm:sqref>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B7 B9:B34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6302,9 +6358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6316,20 +6372,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="213" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -6379,8 +6435,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_AugStr', 'Animist1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_AugStr', 'Animist1-0-1','Animist1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -6405,8 +6461,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_AugDex', 'Animist1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_AugDex', 'Animist1-0-2','Animist1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -6431,8 +6487,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_AugCon', 'Animist1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_AugCon', 'Animist1-0-3','Animist1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -6457,8 +6513,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_SecondWind', 'Animist1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_SecondWind', 'Animist1-0-4','Animist1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6483,8 +6539,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_AugQui', 'Animist1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_AugQui', 'Animist1-0-5','Animist1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -6509,8 +6565,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_AugAcuity', 'Animist1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_AugAcuity', 'Animist1-0-6','Animist1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -6535,8 +6591,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Serenity', 'Animist1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Serenity', 'Animist1-0-7','Animist1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -6561,8 +6617,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_EtherealBond', 'Animist1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_EtherealBond', 'Animist1-0-8','Animist1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -6587,8 +6643,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_WildArcana', 'Animist1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_WildArcana', 'Animist1-0-9','Animist1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -6613,8 +6669,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_WildMinion', 'Animist1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_WildMinion', 'Animist1-1-1','Animist1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -6639,8 +6695,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_WildPower', 'Animist1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_WildPower', 'Animist1-1-2','Animist1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -6665,8 +6721,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MasteryOfTheArt', 'Animist1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MasteryOfTheArt', 'Animist1-1-3','Animist1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -6691,8 +6747,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MasteryOfMagery', 'Animist1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MasteryOfMagery', 'Animist1-1-4','Animist1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -6717,8 +6773,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MasteryOfTheArcane', 'Animist1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MasteryOfTheArcane', 'Animist1-1-5','Animist1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -6743,8 +6799,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Concentration', 'Animist1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Concentration', 'Animist1-1-6','Animist1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -6769,8 +6825,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MasteryOfConcentration', 'Animist1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MasteryOfConcentration', 'Animist1-1-7','Animist1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -6795,8 +6851,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MajesticWill', 'Animist1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MajesticWill', 'Animist1-1-8','Animist1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -6821,8 +6877,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_LongWind', 'Animist1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_LongWind', 'Animist1-1-9','Animist1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -6847,8 +6903,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Tireless', 'Animist1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Tireless', 'Animist1-2-1','Animist1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -6873,8 +6929,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Regeneration', 'Animist1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Regeneration', 'Animist1-2-2','Animist1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -6899,8 +6955,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Toughness', 'Animist1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Toughness', 'Animist1-2-3','Animist1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -6925,8 +6981,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MasteryOfWater', 'Animist1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MasteryOfWater', 'Animist1-2-4','Animist1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -6951,8 +7007,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_AvoidanceOfMagic', 'Animist1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_AvoidanceOfMagic', 'Animist1-2-5','Animist1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -6977,8 +7033,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Lifter', 'Animist1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Lifter', 'Animist1-2-6','Animist1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -7003,8 +7059,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_VeilRecovery', 'Animist1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_VeilRecovery', 'Animist1-2-7','Animist1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -7029,8 +7085,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_EmptyMind', 'Animist1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_EmptyMind', 'Animist1-2-8','Animist1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -7055,8 +7111,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_MCL', 'Animist1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_MCL', 'Animist1-2-9','Animist1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -7081,8 +7137,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_RagingPower', 'Animist1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_RagingPower', 'Animist1-3-1','Animist1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -7107,8 +7163,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_Purge', 'Animist1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_Purge', 'Animist1-3-2','Animist1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -7133,8 +7189,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('55', 'AtlasOF_ForestheartAmbusher', 'Animist1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"','",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('55', 'AtlasOF_ForestheartAmbusher', 'Animist1-3-3','Animist1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -7162,9 +7218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7176,20 +7232,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="219.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -7239,8 +7295,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_AugStr', 'Valewalker1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_AugStr', 'Valewalker1-0-1','Valewalker1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -7265,8 +7321,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_MasteryOfArms', 'Valewalker1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_MasteryOfArms', 'Valewalker1-0-2','Valewalker1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -7291,8 +7347,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_AugDex', 'Valewalker1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_AugDex', 'Valewalker1-0-3','Valewalker1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -7317,8 +7373,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_MasteryOfPain', 'Valewalker1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_MasteryOfPain', 'Valewalker1-0-4','Valewalker1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -7343,8 +7399,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_MasteryOfParrying', 'Valewalker1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_MasteryOfParrying', 'Valewalker1-0-5','Valewalker1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -7369,8 +7425,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_HailOfBlows', 'Valewalker1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_HailOfBlows', 'Valewalker1-0-6','Valewalker1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -7395,8 +7451,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_AugCon', 'Valewalker1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_AugCon', 'Valewalker1-0-7','Valewalker1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -7421,8 +7477,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_SecondWind', 'Valewalker1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_SecondWind', 'Valewalker1-0-8','Valewalker1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -7447,8 +7503,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_AugQui', 'Valewalker1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_AugQui', 'Valewalker1-0-9','Valewalker1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -7473,8 +7529,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Dodger', 'Valewalker1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Dodger', 'Valewalker1-1-1','Valewalker1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -7499,8 +7555,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_AugAcuity', 'Valewalker1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_AugAcuity', 'Valewalker1-1-2','Valewalker1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -7525,8 +7581,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Serenity', 'Valewalker1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Serenity', 'Valewalker1-1-3','Valewalker1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -7551,8 +7607,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_WildArcana', 'Valewalker1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_WildArcana', 'Valewalker1-1-4','Valewalker1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -7577,8 +7633,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_WildPower', 'Valewalker1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_WildPower', 'Valewalker1-1-5','Valewalker1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -7603,8 +7659,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_LongWind', 'Valewalker1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_LongWind', 'Valewalker1-1-6','Valewalker1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -7629,8 +7685,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Tireless', 'Valewalker1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Tireless', 'Valewalker1-1-7','Valewalker1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -7655,8 +7711,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Regeneration', 'Valewalker1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Regeneration', 'Valewalker1-1-8','Valewalker1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -7681,8 +7737,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Toughness', 'Valewalker1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Toughness', 'Valewalker1-1-9','Valewalker1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -7707,8 +7763,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_MasteryOfWater', 'Valewalker1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_MasteryOfWater', 'Valewalker1-2-1','Valewalker1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -7733,8 +7789,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_AvoidanceOfMagic', 'Valewalker1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_AvoidanceOfMagic', 'Valewalker1-2-2','Valewalker1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -7759,8 +7815,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Lifter', 'Valewalker1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Lifter', 'Valewalker1-2-3','Valewalker1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -7785,8 +7841,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_VeilRecovery', 'Valewalker1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_VeilRecovery', 'Valewalker1-2-4','Valewalker1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -7811,8 +7867,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_FirstAid', 'Valewalker1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_FirstAid', 'Valewalker1-2-5','Valewalker1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -7837,8 +7893,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_IgnorePain', 'Valewalker1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_IgnorePain', 'Valewalker1-2-6','Valewalker1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -7863,8 +7919,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_RainOfFire', 'Valewalker1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_RainOfFire', 'Valewalker1-2-7','Valewalker1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -7889,8 +7945,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_RainOfIce', 'Valewalker1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_RainOfIce', 'Valewalker1-2-8','Valewalker1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -7915,8 +7971,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_RainOfAnnihilation', 'Valewalker1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_RainOfAnnihilation', 'Valewalker1-2-9','Valewalker1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -7941,8 +7997,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_EmptyMind', 'Valewalker1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_EmptyMind', 'Valewalker1-3-1','Valewalker1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -7967,8 +8023,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_MCL', 'Valewalker1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_MCL', 'Valewalker1-3-2','Valewalker1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -7993,8 +8049,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_RagingPower', 'Valewalker1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_RagingPower', 'Valewalker1-3-3','Valewalker1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -8019,8 +8075,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_Purge', 'Valewalker1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_Purge', 'Valewalker1-3-4','Valewalker1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -8045,8 +8101,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('56', 'AtlasOF_DefenderOfTheVale', 'Valewalker1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('56', 'AtlasOF_DefenderOfTheVale', 'Valewalker1-3-5','Valewalker1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -8074,9 +8130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,20 +8144,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="206.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -8151,8 +8207,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AugStr', 'Bard1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AugStr', 'Bard1-0-1','Bard1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -8177,8 +8233,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfArms', 'Bard1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfArms', 'Bard1-0-2','Bard1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -8203,8 +8259,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AugDex', 'Bard1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AugDex', 'Bard1-0-3','Bard1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -8229,8 +8285,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfPain', 'Bard1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfPain', 'Bard1-0-4','Bard1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -8255,8 +8311,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfBlocking', 'Bard1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfBlocking', 'Bard1-0-5','Bard1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -8281,8 +8337,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AugCon', 'Bard1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AugCon', 'Bard1-0-6','Bard1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -8307,8 +8363,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_SecondWind', 'Bard1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_SecondWind', 'Bard1-0-7','Bard1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -8333,8 +8389,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_ArmorOfFaith', 'Bard1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_ArmorOfFaith', 'Bard1-0-8','Bard1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -8359,8 +8415,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AugQui', 'Bard1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AugQui', 'Bard1-0-9','Bard1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -8385,8 +8441,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Dodger', 'Bard1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Dodger', 'Bard1-1-1','Bard1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -8411,8 +8467,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AugAcuity', 'Bard1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AugAcuity', 'Bard1-1-2','Bard1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -8437,8 +8493,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Serenity', 'Bard1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Serenity', 'Bard1-1-3','Bard1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -8463,8 +8519,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_EtherealBond', 'Bard1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_EtherealBond', 'Bard1-1-4','Bard1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -8489,8 +8545,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_WildHealing', 'Bard1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_WildHealing', 'Bard1-1-5','Bard1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -8515,8 +8571,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfTheArt', 'Bard1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfTheArt', 'Bard1-1-6','Bard1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -8541,8 +8597,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfHealing', 'Bard1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfHealing', 'Bard1-1-7','Bard1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -8567,8 +8623,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfTheArcane', 'Bard1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfTheArcane', 'Bard1-1-8','Bard1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -8593,8 +8649,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_LongWind', 'Bard1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_LongWind', 'Bard1-1-9','Bard1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8619,8 +8675,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Tireless', 'Bard1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Tireless', 'Bard1-2-1','Bard1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -8645,8 +8701,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Regeneration', 'Bard1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Regeneration', 'Bard1-2-2','Bard1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -8671,8 +8727,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Toughness', 'Bard1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Toughness', 'Bard1-2-3','Bard1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -8697,8 +8753,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MasteryOfWater', 'Bard1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MasteryOfWater', 'Bard1-2-4','Bard1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -8723,8 +8779,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AvoidanceOfMagic', 'Bard1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AvoidanceOfMagic', 'Bard1-2-5','Bard1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -8749,8 +8805,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Lifter', 'Bard1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Lifter', 'Bard1-2-6','Bard1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -8775,8 +8831,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_VeilRecovery', 'Bard1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_VeilRecovery', 'Bard1-2-7','Bard1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -8801,8 +8857,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_FirstAid', 'Bard1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_FirstAid', 'Bard1-2-8','Bard1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -8827,8 +8883,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_IgnorePain', 'Bard1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_IgnorePain', 'Bard1-2-9','Bard1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -8853,8 +8909,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_EmptyMind', 'Bard1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_EmptyMind', 'Bard1-3-1','Bard1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -8879,8 +8935,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_MCL', 'Bard1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_MCL', 'Bard1-3-2','Bard1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -8905,8 +8961,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_RagingPower', 'Bard1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_RagingPower', 'Bard1-3-3','Bard1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -8931,8 +8987,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_Purge', 'Bard1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_Purge', 'Bard1-3-4','Bard1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -8957,8 +9013,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('48', 'AtlasOF_AmelioratingMelodies', 'Bard1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('48', 'AtlasOF_AmelioratingMelodies', 'Bard1-3-5','Bard1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -8986,9 +9042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9000,20 +9056,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="208.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -9063,8 +9119,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_AugStr', 'Druid1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_AugStr', 'Druid1-0-1','Druid1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -9089,8 +9145,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_AugDex', 'Druid1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_AugDex', 'Druid1-0-2','Druid1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -9115,8 +9171,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MasteryOfBlocking', 'Druid1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MasteryOfBlocking', 'Druid1-0-3','Druid1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -9141,8 +9197,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_AugCon', 'Druid1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_AugCon', 'Druid1-0-4','Druid1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -9167,8 +9223,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_SecondWind', 'Druid1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_SecondWind', 'Druid1-0-5','Druid1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -9193,8 +9249,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_ArmorOfFaith', 'Druid1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_ArmorOfFaith', 'Druid1-0-6','Druid1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -9219,8 +9275,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_AugQui', 'Druid1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_AugQui', 'Druid1-0-7','Druid1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -9245,8 +9301,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_AugAcuity', 'Druid1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_AugAcuity', 'Druid1-0-8','Druid1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -9271,8 +9327,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_Serenity', 'Druid1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_Serenity', 'Druid1-0-9','Druid1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -9297,8 +9353,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_EtherealBond', 'Druid1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_EtherealBond', 'Druid1-1-1','Druid1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -9323,8 +9379,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_WildHealing', 'Druid1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_WildHealing', 'Druid1-1-2','Druid1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -9349,8 +9405,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_WildMinion', 'Druid1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_WildMinion', 'Druid1-1-3','Druid1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -9375,8 +9431,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MasteryOfTheArt', 'Druid1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MasteryOfTheArt', 'Druid1-1-4','Druid1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -9401,8 +9457,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MasteryOfHealing', 'Druid1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MasteryOfHealing', 'Druid1-1-5','Druid1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -9427,8 +9483,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MasteryOfTheArcane', 'Druid1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MasteryOfTheArcane', 'Druid1-1-6','Druid1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -9453,8 +9509,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MasteryOfConcentration', 'Druid1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MasteryOfConcentration', 'Druid1-1-7','Druid1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -9479,8 +9535,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_LongWind', 'Druid1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_LongWind', 'Druid1-1-8','Druid1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -9505,8 +9561,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_Tireless', 'Druid1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_Tireless', 'Druid1-1-9','Druid1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -9531,8 +9587,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_Regeneration', 'Druid1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_Regeneration', 'Druid1-2-1','Druid1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -9557,8 +9613,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_Toughness', 'Druid1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_Toughness', 'Druid1-2-2','Druid1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -9583,8 +9639,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MasteryOfWater', 'Druid1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MasteryOfWater', 'Druid1-2-3','Druid1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -9609,8 +9665,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_AvoidanceOfMagic', 'Druid1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_AvoidanceOfMagic', 'Druid1-2-4','Druid1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -9635,8 +9691,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_Lifter', 'Druid1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_Lifter', 'Druid1-2-5','Druid1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -9661,8 +9717,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_VeilRecovery', 'Druid1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_VeilRecovery', 'Druid1-2-6','Druid1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -9687,8 +9743,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_EmptyMind', 'Druid1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_EmptyMind', 'Druid1-2-7','Druid1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -9713,8 +9769,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_MCL', 'Druid1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_MCL', 'Druid1-2-8','Druid1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -9739,8 +9795,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_RagingPower', 'Druid1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_RagingPower', 'Druid1-2-9','Druid1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -9765,8 +9821,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_Purge', 'Druid1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_Purge', 'Druid1-3-1','Druid1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -9791,8 +9847,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_GroupPurge', 'Druid1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_GroupPurge', 'Druid1-3-2','Druid1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9817,8 +9873,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('47', 'AtlasOF_BatteryOfLife', 'Druid1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('47', 'AtlasOF_BatteryOfLife', 'Druid1-3-3','Druid1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -9829,12 +9885,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B33</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9846,9 +9908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H38"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9860,20 +9922,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="210.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -9923,8 +9985,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_AugStr', 'Warden1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_AugStr', 'Warden1-0-1','Warden1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -9949,8 +10011,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfArms', 'Warden1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfArms', 'Warden1-0-2','Warden1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -9975,8 +10037,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_AugDex', 'Warden1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_AugDex', 'Warden1-0-3','Warden1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -10001,8 +10063,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfPain', 'Warden1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfPain', 'Warden1-0-4','Warden1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -10027,8 +10089,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfBlocking', 'Warden1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfBlocking', 'Warden1-0-5','Warden1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -10053,8 +10115,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfParrying', 'Warden1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfParrying', 'Warden1-0-6','Warden1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -10079,8 +10141,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_AugCon', 'Warden1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_AugCon', 'Warden1-0-7','Warden1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -10105,8 +10167,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_SecondWind', 'Warden1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_SecondWind', 'Warden1-0-8','Warden1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -10131,8 +10193,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_ArmorOfFaith', 'Warden1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_ArmorOfFaith', 'Warden1-0-9','Warden1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -10157,8 +10219,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_BattleYell', 'Warden1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_BattleYell', 'Warden1-1-1','Warden1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -10183,8 +10245,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_AugQui', 'Warden1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_AugQui', 'Warden1-1-2','Warden1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -10209,8 +10271,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_AugAcuity', 'Warden1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_AugAcuity', 'Warden1-1-3','Warden1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -10235,8 +10297,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_Serenity', 'Warden1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_Serenity', 'Warden1-1-4','Warden1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10261,8 +10323,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_EtherealBond', 'Warden1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_EtherealBond', 'Warden1-1-5','Warden1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10287,8 +10349,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_WildHealing', 'Warden1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_WildHealing', 'Warden1-1-6','Warden1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10313,8 +10375,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfHealing', 'Warden1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfHealing', 'Warden1-1-7','Warden1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10339,8 +10401,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfTheArcane', 'Warden1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfTheArcane', 'Warden1-1-8','Warden1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10365,8 +10427,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_LongWind', 'Warden1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_LongWind', 'Warden1-1-9','Warden1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10391,8 +10453,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_Tireless', 'Warden1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_Tireless', 'Warden1-2-1','Warden1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10417,8 +10479,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_Regeneration', 'Warden1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_Regeneration', 'Warden1-2-2','Warden1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10443,8 +10505,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_Toughness', 'Warden1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_Toughness', 'Warden1-2-3','Warden1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10469,8 +10531,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MasteryOfWater', 'Warden1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MasteryOfWater', 'Warden1-2-4','Warden1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10495,8 +10557,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_AvoidanceOfMagic', 'Warden1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_AvoidanceOfMagic', 'Warden1-2-5','Warden1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10521,8 +10583,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_Lifter', 'Warden1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_Lifter', 'Warden1-2-6','Warden1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10547,8 +10609,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_VeilRecovery', 'Warden1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_VeilRecovery', 'Warden1-2-7','Warden1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10573,8 +10635,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_FirstAid', 'Warden1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_FirstAid', 'Warden1-2-8','Warden1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10599,8 +10661,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_IgnorePain', 'Warden1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_IgnorePain', 'Warden1-2-9','Warden1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10625,8 +10687,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_RainOfFire', 'Warden1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_RainOfFire', 'Warden1-3-1','Warden1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10651,8 +10713,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_RainOfIce', 'Warden1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_RainOfIce', 'Warden1-3-2','Warden1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10677,8 +10739,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_RainOfAnnihilation', 'Warden1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_RainOfAnnihilation', 'Warden1-3-3','Warden1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10703,8 +10765,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_EmptyMind', 'Warden1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_EmptyMind', 'Warden1-3-4','Warden1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10718,7 +10780,7 @@
         <v>104</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35" si="4">IF(G34=9,E34+1,E34)</f>
+        <f t="shared" ref="E35:E38" si="4">IF(G34=9,E34+1,E34)</f>
         <v>3</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -10729,8 +10791,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_MCL', 'Warden1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_MCL', 'Warden1-3-5','Warden1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -10744,7 +10806,7 @@
         <v>104</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" ref="E36:E38" si="5">IF(G35=9,E35+1,E35)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -10755,8 +10817,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_RagingPower', 'Warden1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_RagingPower', 'Warden1-3-6','Warden1-3-6');</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -10770,7 +10832,7 @@
         <v>104</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -10781,8 +10843,8 @@
         <v>7</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_Purge', 'Warden1-3-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_Purge', 'Warden1-3-7','Warden1-3-7');</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -10796,7 +10858,7 @@
         <v>104</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -10807,8 +10869,8 @@
         <v>8</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('46', 'AtlasOF_ThornweedField', 'Warden1-3-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('46', 'AtlasOF_ThornweedField', 'Warden1-3-8','Warden1-3-8');</v>
       </c>
     </row>
   </sheetData>
@@ -10819,12 +10881,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B38</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B6 B8:B38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10836,9 +10904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H36"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10850,20 +10918,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="221.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -10913,8 +10981,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_AugStr', 'Blademaster1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_AugStr', 'Blademaster1-0-1','Blademaster1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -10939,8 +11007,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_MasteryOfArms', 'Blademaster1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_MasteryOfArms', 'Blademaster1-0-2','Blademaster1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -10965,8 +11033,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_AugDex', 'Blademaster1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_AugDex', 'Blademaster1-0-3','Blademaster1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -10991,8 +11059,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_MasteryOfPain', 'Blademaster1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_MasteryOfPain', 'Blademaster1-0-4','Blademaster1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -11017,8 +11085,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_MasteryOfParrying', 'Blademaster1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_MasteryOfParrying', 'Blademaster1-0-5','Blademaster1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -11043,8 +11111,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_HailOfBlows', 'Blademaster1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_HailOfBlows', 'Blademaster1-0-6','Blademaster1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -11069,8 +11137,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_DualistsReflexes', 'Blademaster1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_DualistsReflexes', 'Blademaster1-0-7','Blademaster1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -11095,8 +11163,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_WhirlingDervish', 'Blademaster1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_WhirlingDervish', 'Blademaster1-0-8','Blademaster1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -11121,8 +11189,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Bladedance', 'Blademaster1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Bladedance', 'Blademaster1-0-9','Blademaster1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -11147,8 +11215,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_AugCon', 'Blademaster1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_AugCon', 'Blademaster1-1-1','Blademaster1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -11173,8 +11241,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_SecondWind', 'Blademaster1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_SecondWind', 'Blademaster1-1-2','Blademaster1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -11199,8 +11267,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_AugQui', 'Blademaster1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_AugQui', 'Blademaster1-1-3','Blademaster1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -11225,8 +11293,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Dodger', 'Blademaster1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Dodger', 'Blademaster1-1-4','Blademaster1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11251,8 +11319,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_LongWind', 'Blademaster1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_LongWind', 'Blademaster1-1-5','Blademaster1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11277,8 +11345,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Tireless', 'Blademaster1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Tireless', 'Blademaster1-1-6','Blademaster1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -11303,8 +11371,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Regeneration', 'Blademaster1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Regeneration', 'Blademaster1-1-7','Blademaster1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11329,8 +11397,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Toughness', 'Blademaster1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Toughness', 'Blademaster1-1-8','Blademaster1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11355,8 +11423,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_MasteryOfWater', 'Blademaster1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_MasteryOfWater', 'Blademaster1-1-9','Blademaster1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11381,8 +11449,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_AvoidanceOfMagic', 'Blademaster1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_AvoidanceOfMagic', 'Blademaster1-2-1','Blademaster1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -11407,8 +11475,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Lifter', 'Blademaster1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Lifter', 'Blademaster1-2-2','Blademaster1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11433,8 +11501,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_VeilRecovery', 'Blademaster1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_VeilRecovery', 'Blademaster1-2-3','Blademaster1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -11459,8 +11527,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Determination', 'Blademaster1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Determination', 'Blademaster1-2-4','Blademaster1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -11485,8 +11553,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Trip', 'Blademaster1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Trip', 'Blademaster1-2-5','Blademaster1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -11511,8 +11579,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Grapple', 'Blademaster1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Grapple', 'Blademaster1-2-6','Blademaster1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -11537,8 +11605,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_FirstAid', 'Blademaster1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_FirstAid', 'Blademaster1-2-7','Blademaster1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -11563,8 +11631,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_IgnorePain', 'Blademaster1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_IgnorePain', 'Blademaster1-2-8','Blademaster1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11589,8 +11657,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_RainOfFire', 'Blademaster1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_RainOfFire', 'Blademaster1-2-9','Blademaster1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -11615,8 +11683,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_RainOfIce', 'Blademaster1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_RainOfIce', 'Blademaster1-3-1','Blademaster1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -11641,8 +11709,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_RainOfAnnihilation', 'Blademaster1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_RainOfAnnihilation', 'Blademaster1-3-2','Blademaster1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11667,8 +11735,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_EmptyMind', 'Blademaster1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_EmptyMind', 'Blademaster1-3-3','Blademaster1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -11693,8 +11761,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_Purge', 'Blademaster1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_Purge', 'Blademaster1-3-4','Blademaster1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11719,8 +11787,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_StyleWinterMoon', 'Blademaster1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_StyleWinterMoon', 'Blademaster1-3-5','Blademaster1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -11745,8 +11813,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('43', 'AtlasOF_PreventFlight', 'Blademaster1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('43', 'AtlasOF_PreventFlight', 'Blademaster1-3-6','Blademaster1-3-6');</v>
       </c>
     </row>
   </sheetData>
@@ -11757,12 +11825,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B36</xm:sqref>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B8 B10:B36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11774,9 +11848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11788,20 +11862,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="206.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -11851,8 +11925,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_AugStr', 'Hero1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_AugStr', 'Hero1-0-1','Hero1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -11877,8 +11951,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_MasteryOfArms', 'Hero1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_MasteryOfArms', 'Hero1-0-2','Hero1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -11903,8 +11977,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_AugDex', 'Hero1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_AugDex', 'Hero1-0-3','Hero1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -11929,8 +12003,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_MasteryOfPain', 'Hero1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_MasteryOfPain', 'Hero1-0-4','Hero1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -11955,8 +12029,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_MasteryOfBlocking', 'Hero1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_MasteryOfBlocking', 'Hero1-0-5','Hero1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -11981,8 +12055,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_MasteryOfParrying', 'Hero1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_MasteryOfParrying', 'Hero1-0-6','Hero1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -12007,8 +12081,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_HailOfBlows', 'Hero1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_HailOfBlows', 'Hero1-0-7','Hero1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -12033,8 +12107,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_AugCon', 'Hero1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_AugCon', 'Hero1-0-8','Hero1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -12059,8 +12133,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_AvoidPain', 'Hero1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_AvoidPain', 'Hero1-0-9','Hero1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -12085,8 +12159,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_SecondWind', 'Hero1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_SecondWind', 'Hero1-1-1','Hero1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -12111,8 +12185,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_ArmorOfFaith', 'Hero1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_ArmorOfFaith', 'Hero1-1-2','Hero1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -12137,8 +12211,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_BattleYell', 'Hero1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_BattleYell', 'Hero1-1-3','Hero1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -12163,8 +12237,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_AugQui', 'Hero1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_AugQui', 'Hero1-1-4','Hero1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -12189,8 +12263,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_LongWind', 'Hero1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_LongWind', 'Hero1-1-5','Hero1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -12215,8 +12289,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Tireless', 'Hero1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Tireless', 'Hero1-1-6','Hero1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -12241,8 +12315,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Regeneration', 'Hero1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Regeneration', 'Hero1-1-7','Hero1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -12267,8 +12341,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Toughness', 'Hero1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Toughness', 'Hero1-1-8','Hero1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -12293,8 +12367,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_MasteryOfWater', 'Hero1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_MasteryOfWater', 'Hero1-1-9','Hero1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -12319,8 +12393,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_AvoidanceOfMagic', 'Hero1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_AvoidanceOfMagic', 'Hero1-2-1','Hero1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -12345,8 +12419,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Lifter', 'Hero1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Lifter', 'Hero1-2-2','Hero1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -12371,8 +12445,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_VeilRecovery', 'Hero1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_VeilRecovery', 'Hero1-2-3','Hero1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -12397,8 +12471,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Determination', 'Hero1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Determination', 'Hero1-2-4','Hero1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -12423,8 +12497,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Trip', 'Hero1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Trip', 'Hero1-2-5','Hero1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -12449,8 +12523,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Grapple', 'Hero1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Grapple', 'Hero1-2-6','Hero1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -12475,8 +12549,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_FirstAid', 'Hero1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_FirstAid', 'Hero1-2-7','Hero1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -12501,8 +12575,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_IgnorePain', 'Hero1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_IgnorePain', 'Hero1-2-8','Hero1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -12527,8 +12601,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_RainOfFire', 'Hero1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_RainOfFire', 'Hero1-2-9','Hero1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -12553,8 +12627,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_RainOfIce', 'Hero1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_RainOfIce', 'Hero1-3-1','Hero1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -12579,8 +12653,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_RainOfAnnihilation', 'Hero1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_RainOfAnnihilation', 'Hero1-3-2','Hero1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -12605,8 +12679,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_EmptyMind', 'Hero1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_EmptyMind', 'Hero1-3-3','Hero1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -12631,8 +12705,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_Purge', 'Hero1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_Purge', 'Hero1-3-4','Hero1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -12657,8 +12731,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_StyleRazorback', 'Hero1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_StyleRazorback', 'Hero1-3-5','Hero1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -12683,8 +12757,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('44', 'AtlasOF_PreventFlight', 'Hero1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('44', 'AtlasOF_PreventFlight', 'Hero1-3-6','Hero1-3-6');</v>
       </c>
     </row>
   </sheetData>
@@ -12695,12 +12769,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B36</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12712,9 +12792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H36"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12726,20 +12806,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="215" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -12789,8 +12869,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AugStr', 'Champion1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AugStr', 'Champion1-0-1','Champion1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -12815,8 +12895,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MasteryOfArms', 'Champion1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MasteryOfArms', 'Champion1-0-2','Champion1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -12841,8 +12921,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AugDex', 'Champion1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AugDex', 'Champion1-0-3','Champion1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -12867,8 +12947,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MasteryOfPain', 'Champion1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MasteryOfPain', 'Champion1-0-4','Champion1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -12893,8 +12973,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MasteryOfBlocking', 'Champion1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MasteryOfBlocking', 'Champion1-0-5','Champion1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -12919,8 +12999,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MasteryOfParrying', 'Champion1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MasteryOfParrying', 'Champion1-0-6','Champion1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -12945,8 +13025,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_HailOfBlows', 'Champion1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_HailOfBlows', 'Champion1-0-7','Champion1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -12971,8 +13051,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AugCon', 'Champion1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AugCon', 'Champion1-0-8','Champion1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -12997,8 +13077,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AvoidPain', 'Champion1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AvoidPain', 'Champion1-0-9','Champion1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -13023,8 +13103,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_SecondWind', 'Champion1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_SecondWind', 'Champion1-1-1','Champion1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -13049,8 +13129,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AugQui', 'Champion1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AugQui', 'Champion1-1-2','Champion1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -13075,8 +13155,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AugAcuity', 'Champion1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AugAcuity', 'Champion1-1-3','Champion1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -13101,8 +13181,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_Serenity', 'Champion1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_Serenity', 'Champion1-1-4','Champion1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -13127,8 +13207,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_WildArcana', 'Champion1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_WildArcana', 'Champion1-1-5','Champion1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -13153,8 +13233,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MasteryOfTheArcane', 'Champion1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MasteryOfTheArcane', 'Champion1-1-6','Champion1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -13179,8 +13259,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_LongWind', 'Champion1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_LongWind', 'Champion1-1-7','Champion1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -13205,8 +13285,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_Tireless', 'Champion1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_Tireless', 'Champion1-1-8','Champion1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -13231,8 +13311,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_Regeneration', 'Champion1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_Regeneration', 'Champion1-1-9','Champion1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -13257,8 +13337,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_Toughness', 'Champion1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_Toughness', 'Champion1-2-1','Champion1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -13283,8 +13363,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MasteryOfWater', 'Champion1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MasteryOfWater', 'Champion1-2-2','Champion1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -13309,8 +13389,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_AvoidanceOfMagic', 'Champion1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_AvoidanceOfMagic', 'Champion1-2-3','Champion1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -13335,8 +13415,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_Lifter', 'Champion1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_Lifter', 'Champion1-2-4','Champion1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -13361,8 +13441,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_VeilRecovery', 'Champion1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_VeilRecovery', 'Champion1-2-5','Champion1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -13387,8 +13467,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_FirstAid', 'Champion1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_FirstAid', 'Champion1-2-6','Champion1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -13413,8 +13493,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_IgnorePain', 'Champion1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_IgnorePain', 'Champion1-2-7','Champion1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -13439,8 +13519,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_RainOfFire', 'Champion1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_RainOfFire', 'Champion1-2-8','Champion1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -13465,8 +13545,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_RainOfIce', 'Champion1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_RainOfIce', 'Champion1-2-9','Champion1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -13491,8 +13571,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_RainOfAnnihilation', 'Champion1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_RainOfAnnihilation', 'Champion1-3-1','Champion1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -13517,8 +13597,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_EmptyMind', 'Champion1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_EmptyMind', 'Champion1-3-2','Champion1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -13543,8 +13623,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_MCL', 'Champion1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_MCL', 'Champion1-3-3','Champion1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -13569,8 +13649,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_RagingPower', 'Champion1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_RagingPower', 'Champion1-3-4','Champion1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -13595,8 +13675,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_Purge', 'Champion1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_Purge', 'Champion1-3-5','Champion1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -13621,8 +13701,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('45', 'AtlasOF_WrathOfTheChampion', 'Champion1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('45', 'AtlasOF_WrathOfTheChampion', 'Champion1-3-6','Champion1-3-6');</v>
       </c>
     </row>
   </sheetData>
@@ -13633,12 +13713,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B36</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B6:B36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13650,9 +13736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13664,20 +13750,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="215" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -13727,8 +13813,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_AugStr', 'Eldritch1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_AugStr', 'Eldritch1-0-1','Eldritch1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -13753,8 +13839,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_AugDex', 'Eldritch1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_AugDex', 'Eldritch1-0-2','Eldritch1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -13779,8 +13865,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_AugCon', 'Eldritch1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_AugCon', 'Eldritch1-0-3','Eldritch1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -13805,8 +13891,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_SecondWind', 'Eldritch1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_SecondWind', 'Eldritch1-0-4','Eldritch1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -13831,8 +13917,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_AugQui', 'Eldritch1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_AugQui', 'Eldritch1-0-5','Eldritch1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -13857,8 +13943,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_AugAcuity', 'Eldritch1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_AugAcuity', 'Eldritch1-0-6','Eldritch1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -13883,8 +13969,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Serenity', 'Eldritch1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Serenity', 'Eldritch1-0-7','Eldritch1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -13909,8 +13995,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_EtherealBond', 'Eldritch1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_EtherealBond', 'Eldritch1-0-8','Eldritch1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -13935,8 +14021,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_WildArcana', 'Eldritch1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_WildArcana', 'Eldritch1-0-9','Eldritch1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -13961,8 +14047,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_WildPower', 'Eldritch1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_WildPower', 'Eldritch1-1-1','Eldritch1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -13987,8 +14073,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MasteryOfTheArt', 'Eldritch1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MasteryOfTheArt', 'Eldritch1-1-2','Eldritch1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -14013,8 +14099,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MasteryOfMagery', 'Eldritch1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MasteryOfMagery', 'Eldritch1-1-3','Eldritch1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -14039,8 +14125,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MasteryOfTheArcane', 'Eldritch1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MasteryOfTheArcane', 'Eldritch1-1-4','Eldritch1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -14065,8 +14151,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Concentration', 'Eldritch1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Concentration', 'Eldritch1-1-5','Eldritch1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -14091,8 +14177,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MasteryOfConcentration', 'Eldritch1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MasteryOfConcentration', 'Eldritch1-1-6','Eldritch1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -14117,8 +14203,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MajesticWill', 'Eldritch1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MajesticWill', 'Eldritch1-1-7','Eldritch1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -14143,8 +14229,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_LongWind', 'Eldritch1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_LongWind', 'Eldritch1-1-8','Eldritch1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -14169,8 +14255,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Tireless', 'Eldritch1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Tireless', 'Eldritch1-1-9','Eldritch1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -14195,8 +14281,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Regeneration', 'Eldritch1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Regeneration', 'Eldritch1-2-1','Eldritch1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -14221,8 +14307,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Toughness', 'Eldritch1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Toughness', 'Eldritch1-2-2','Eldritch1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -14247,8 +14333,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MasteryOfWater', 'Eldritch1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MasteryOfWater', 'Eldritch1-2-3','Eldritch1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -14273,8 +14359,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_AvoidanceOfMagic', 'Eldritch1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_AvoidanceOfMagic', 'Eldritch1-2-4','Eldritch1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -14299,8 +14385,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Lifter', 'Eldritch1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Lifter', 'Eldritch1-2-5','Eldritch1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -14325,8 +14411,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_VeilRecovery', 'Eldritch1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_VeilRecovery', 'Eldritch1-2-6','Eldritch1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -14351,8 +14437,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_FirstAid', 'Eldritch1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_FirstAid', 'Eldritch1-2-7','Eldritch1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -14377,8 +14463,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_EmptyMind', 'Eldritch1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_EmptyMind', 'Eldritch1-2-8','Eldritch1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -14403,8 +14489,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_MCL', 'Eldritch1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_MCL', 'Eldritch1-2-9','Eldritch1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -14429,8 +14515,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_RagingPower', 'Eldritch1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_RagingPower', 'Eldritch1-3-1','Eldritch1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -14455,8 +14541,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_Purge', 'Eldritch1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_Purge', 'Eldritch1-3-2','Eldritch1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -14481,8 +14567,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('40', 'AtlasOF_NegativeMaelstrom', 'Eldritch1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"','",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('40', 'AtlasOF_NegativeMaelstrom', 'Eldritch1-3-3','Eldritch1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -14493,12 +14579,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B33</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14510,9 +14602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14524,20 +14616,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="217.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -14587,8 +14679,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_AugStr', 'Enchanter1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_AugStr', 'Enchanter1-0-1','Enchanter1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -14613,8 +14705,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_AugDex', 'Enchanter1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_AugDex', 'Enchanter1-0-2','Enchanter1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -14639,8 +14731,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_AugCon', 'Enchanter1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_AugCon', 'Enchanter1-0-3','Enchanter1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -14665,8 +14757,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_SecondWind', 'Enchanter1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_SecondWind', 'Enchanter1-0-4','Enchanter1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -14691,8 +14783,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_AugQui', 'Enchanter1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_AugQui', 'Enchanter1-0-5','Enchanter1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -14717,8 +14809,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_AugAcuity', 'Enchanter1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_AugAcuity', 'Enchanter1-0-6','Enchanter1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -14743,8 +14835,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Serenity', 'Enchanter1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Serenity', 'Enchanter1-0-7','Enchanter1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -14769,8 +14861,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_EtherealBond', 'Enchanter1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_EtherealBond', 'Enchanter1-0-8','Enchanter1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -14795,8 +14887,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_WildMinion', 'Enchanter1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_WildMinion', 'Enchanter1-0-9','Enchanter1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -14821,8 +14913,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_WildPower', 'Enchanter1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_WildPower', 'Enchanter1-1-1','Enchanter1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -14847,8 +14939,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MasteryOfTheArt', 'Enchanter1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MasteryOfTheArt', 'Enchanter1-1-2','Enchanter1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -14873,8 +14965,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MasteryOfMagery', 'Enchanter1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MasteryOfMagery', 'Enchanter1-1-3','Enchanter1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -14899,8 +14991,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MasteryOfTheArcane', 'Enchanter1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MasteryOfTheArcane', 'Enchanter1-1-4','Enchanter1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -14925,8 +15017,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Concentration', 'Enchanter1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Concentration', 'Enchanter1-1-5','Enchanter1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -14951,8 +15043,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MasteryOfConcentration', 'Enchanter1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MasteryOfConcentration', 'Enchanter1-1-6','Enchanter1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -14977,8 +15069,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MajesticWill', 'Enchanter1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MajesticWill', 'Enchanter1-1-7','Enchanter1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -15003,8 +15095,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_LongWind', 'Enchanter1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_LongWind', 'Enchanter1-1-8','Enchanter1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -15029,8 +15121,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Tireless', 'Enchanter1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Tireless', 'Enchanter1-1-9','Enchanter1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -15055,8 +15147,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Regeneration', 'Enchanter1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Regeneration', 'Enchanter1-2-1','Enchanter1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -15081,8 +15173,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Toughness', 'Enchanter1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Toughness', 'Enchanter1-2-2','Enchanter1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -15107,8 +15199,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MasteryOfWater', 'Enchanter1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MasteryOfWater', 'Enchanter1-2-3','Enchanter1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -15133,8 +15225,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_AvoidanceOfMagic', 'Enchanter1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_AvoidanceOfMagic', 'Enchanter1-2-4','Enchanter1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -15159,8 +15251,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Lifter', 'Enchanter1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Lifter', 'Enchanter1-2-5','Enchanter1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -15185,8 +15277,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_VeilRecovery', 'Enchanter1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_VeilRecovery', 'Enchanter1-2-6','Enchanter1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -15211,8 +15303,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_FirstAid', 'Enchanter1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_FirstAid', 'Enchanter1-2-7','Enchanter1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -15237,8 +15329,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_EmptyMind', 'Enchanter1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_EmptyMind', 'Enchanter1-2-8','Enchanter1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -15263,8 +15355,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_MCL', 'Enchanter1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_MCL', 'Enchanter1-2-9','Enchanter1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -15289,8 +15381,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_RagingPower', 'Enchanter1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_RagingPower', 'Enchanter1-3-1','Enchanter1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -15315,8 +15407,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_Purge', 'Enchanter1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_Purge', 'Enchanter1-3-2','Enchanter1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -15341,8 +15433,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('41', 'AtlasOF_BrilliantAura', 'Enchanter1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"','",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('41', 'AtlasOF_BrilliantAura', 'Enchanter1-3-3','Enchanter1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -15353,12 +15445,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B33</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CONFIG!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B6:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
